--- a/excel/schedule.xlsx
+++ b/excel/schedule.xlsx
@@ -221,11 +221,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -233,6 +234,36 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -251,15 +282,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -267,7 +299,30 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -282,6 +337,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -289,32 +352,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -329,47 +368,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -389,43 +390,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,91 +552,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,43 +570,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,39 +581,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -635,6 +603,45 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -666,17 +673,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -685,152 +686,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -839,6 +840,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1162,7 +1166,7 @@
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -1171,7 +1175,7 @@
     <col min="2" max="2" width="19.125" customWidth="1"/>
     <col min="3" max="3" width="5.375" customWidth="1"/>
     <col min="4" max="4" width="37.875" customWidth="1"/>
-    <col min="5" max="5" width="12.875" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
     <col min="6" max="6" width="7" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1218,6 +1222,9 @@
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="E3" s="3">
+        <v>43779</v>
+      </c>
       <c r="F3" t="s">
         <v>8</v>
       </c>
@@ -1231,6 +1238,7 @@
       <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="E4" s="3"/>
       <c r="F4" t="s">
         <v>8</v>
       </c>
@@ -1244,6 +1252,7 @@
       <c r="D5" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="E5" s="3"/>
       <c r="F5" t="s">
         <v>8</v>
       </c>
@@ -1257,6 +1266,7 @@
       <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="E6" s="3"/>
       <c r="F6" t="s">
         <v>8</v>
       </c>
@@ -1270,6 +1280,7 @@
       <c r="D7" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E7" s="3"/>
       <c r="F7" t="s">
         <v>8</v>
       </c>
@@ -1283,6 +1294,7 @@
       <c r="D8" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="E8" s="3"/>
       <c r="F8" t="s">
         <v>8</v>
       </c>
@@ -1299,6 +1311,9 @@
       </c>
       <c r="D9" s="2" t="s">
         <v>15</v>
+      </c>
+      <c r="E9" s="3">
+        <v>43786</v>
       </c>
       <c r="F9" t="s">
         <v>8</v>
@@ -1313,6 +1328,7 @@
       <c r="D10" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="E10" s="3"/>
       <c r="F10" t="s">
         <v>8</v>
       </c>
@@ -1326,6 +1342,7 @@
       <c r="D11" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="E11" s="3"/>
       <c r="F11" t="s">
         <v>8</v>
       </c>
@@ -1342,6 +1359,9 @@
       </c>
       <c r="D12" s="2" t="s">
         <v>19</v>
+      </c>
+      <c r="E12" s="3">
+        <v>43793</v>
       </c>
       <c r="F12" t="s">
         <v>8</v>
@@ -1356,6 +1376,7 @@
       <c r="D13" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="E13" s="3"/>
       <c r="F13" t="s">
         <v>8</v>
       </c>
@@ -1369,6 +1390,7 @@
       <c r="D14" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="E14" s="3"/>
       <c r="F14" t="s">
         <v>8</v>
       </c>
@@ -1382,6 +1404,7 @@
       <c r="D15" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="E15" s="3"/>
       <c r="F15" t="s">
         <v>8</v>
       </c>
@@ -1398,6 +1421,9 @@
       </c>
       <c r="D16" s="2" t="s">
         <v>24</v>
+      </c>
+      <c r="E16" s="3">
+        <v>43800</v>
       </c>
       <c r="F16" t="s">
         <v>8</v>
@@ -1412,6 +1438,7 @@
       <c r="D17" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="E17" s="3"/>
       <c r="F17" t="s">
         <v>8</v>
       </c>
@@ -1425,6 +1452,7 @@
       <c r="D18" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="E18" s="3"/>
       <c r="F18" t="s">
         <v>8</v>
       </c>
@@ -1438,6 +1466,7 @@
       <c r="D19" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="E19" s="3"/>
       <c r="F19" t="s">
         <v>8</v>
       </c>
@@ -1454,6 +1483,9 @@
       </c>
       <c r="D20" s="2" t="s">
         <v>29</v>
+      </c>
+      <c r="E20" s="3">
+        <v>43807</v>
       </c>
       <c r="F20" t="s">
         <v>8</v>
@@ -1468,6 +1500,7 @@
       <c r="D21" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="E21" s="3"/>
       <c r="F21" t="s">
         <v>8</v>
       </c>
@@ -1481,6 +1514,7 @@
       <c r="D22" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="E22" s="3"/>
       <c r="F22" t="s">
         <v>8</v>
       </c>
@@ -1494,6 +1528,7 @@
       <c r="D23" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="E23" s="3"/>
       <c r="F23" t="s">
         <v>8</v>
       </c>
@@ -1510,6 +1545,9 @@
       </c>
       <c r="D24" s="2" t="s">
         <v>34</v>
+      </c>
+      <c r="E24" s="3">
+        <v>43814</v>
       </c>
       <c r="F24" t="s">
         <v>8</v>
@@ -1524,6 +1562,7 @@
       <c r="D25" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="E25" s="3"/>
       <c r="F25" t="s">
         <v>8</v>
       </c>
@@ -1537,6 +1576,7 @@
       <c r="D26" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="E26" s="3"/>
       <c r="F26" t="s">
         <v>8</v>
       </c>
@@ -1553,6 +1593,9 @@
       </c>
       <c r="D27" s="2" t="s">
         <v>38</v>
+      </c>
+      <c r="E27" s="3">
+        <v>43821</v>
       </c>
       <c r="F27" t="s">
         <v>8</v>
@@ -1567,6 +1610,7 @@
       <c r="D28" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="E28" s="3"/>
       <c r="F28" t="s">
         <v>8</v>
       </c>
@@ -1580,6 +1624,7 @@
       <c r="D29" s="2" t="s">
         <v>40</v>
       </c>
+      <c r="E29" s="3"/>
       <c r="F29" t="s">
         <v>8</v>
       </c>
@@ -1593,6 +1638,7 @@
       <c r="D30" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="E30" s="3"/>
       <c r="F30" t="s">
         <v>8</v>
       </c>
@@ -1606,6 +1652,7 @@
       <c r="D31" s="2" t="s">
         <v>42</v>
       </c>
+      <c r="E31" s="3"/>
       <c r="F31" t="s">
         <v>8</v>
       </c>
@@ -1619,6 +1666,7 @@
       <c r="D32" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="E32" s="3"/>
       <c r="F32" t="s">
         <v>8</v>
       </c>
@@ -1635,6 +1683,9 @@
       </c>
       <c r="D33" s="2" t="s">
         <v>45</v>
+      </c>
+      <c r="E33" s="3">
+        <v>43828</v>
       </c>
       <c r="F33" t="s">
         <v>8</v>
@@ -1649,6 +1700,7 @@
       <c r="D34" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="E34" s="3"/>
       <c r="F34" t="s">
         <v>8</v>
       </c>
@@ -1662,6 +1714,7 @@
       <c r="D35" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="E35" s="3"/>
       <c r="F35" t="s">
         <v>8</v>
       </c>
@@ -1675,6 +1728,7 @@
       <c r="D36" s="2" t="s">
         <v>48</v>
       </c>
+      <c r="E36" s="3"/>
       <c r="F36" t="s">
         <v>8</v>
       </c>
@@ -1691,6 +1745,9 @@
       </c>
       <c r="D37" s="2" t="s">
         <v>50</v>
+      </c>
+      <c r="E37" s="3">
+        <v>43835</v>
       </c>
       <c r="F37" t="s">
         <v>8</v>
@@ -1705,6 +1762,7 @@
       <c r="D38" s="2" t="s">
         <v>51</v>
       </c>
+      <c r="E38" s="3"/>
       <c r="F38" t="s">
         <v>8</v>
       </c>
@@ -1718,6 +1776,7 @@
       <c r="D39" s="2" t="s">
         <v>52</v>
       </c>
+      <c r="E39" s="3"/>
       <c r="F39" t="s">
         <v>8</v>
       </c>
@@ -1731,6 +1790,7 @@
       <c r="D40" s="2" t="s">
         <v>53</v>
       </c>
+      <c r="E40" s="3"/>
       <c r="F40" t="s">
         <v>8</v>
       </c>
@@ -1744,6 +1804,7 @@
       <c r="D41" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="E41" s="3"/>
       <c r="F41" t="s">
         <v>8</v>
       </c>
@@ -1760,6 +1821,9 @@
       </c>
       <c r="D42" s="2" t="s">
         <v>56</v>
+      </c>
+      <c r="E42" s="3">
+        <v>43842</v>
       </c>
       <c r="F42" t="s">
         <v>8</v>
@@ -1774,6 +1838,7 @@
       <c r="D43" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="E43" s="3"/>
       <c r="F43" t="s">
         <v>8</v>
       </c>
@@ -1787,6 +1852,7 @@
       <c r="D44" s="2" t="s">
         <v>58</v>
       </c>
+      <c r="E44" s="3"/>
       <c r="F44" t="s">
         <v>8</v>
       </c>
@@ -1800,6 +1866,7 @@
       <c r="D45" s="2" t="s">
         <v>59</v>
       </c>
+      <c r="E45" s="3"/>
       <c r="F45" t="s">
         <v>8</v>
       </c>
@@ -1813,6 +1880,7 @@
       <c r="D46" s="2" t="s">
         <v>60</v>
       </c>
+      <c r="E46" s="3"/>
       <c r="F46" t="s">
         <v>8</v>
       </c>
@@ -1829,6 +1897,9 @@
       </c>
       <c r="D47" s="2" t="s">
         <v>62</v>
+      </c>
+      <c r="E47" s="3">
+        <v>43849</v>
       </c>
       <c r="F47" t="s">
         <v>8</v>
@@ -1843,6 +1914,7 @@
       <c r="D48" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="E48" s="3"/>
       <c r="F48" t="s">
         <v>8</v>
       </c>
@@ -1856,6 +1928,7 @@
       <c r="D49" s="2" t="s">
         <v>64</v>
       </c>
+      <c r="E49" s="3"/>
       <c r="F49" t="s">
         <v>8</v>
       </c>
@@ -1869,6 +1942,7 @@
       <c r="D50" s="2" t="s">
         <v>65</v>
       </c>
+      <c r="E50" s="3"/>
       <c r="F50" t="s">
         <v>8</v>
       </c>
@@ -1882,12 +1956,13 @@
       <c r="D51" s="2" t="s">
         <v>66</v>
       </c>
+      <c r="E51" s="3"/>
       <c r="F51" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="37">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A3:A8"/>
@@ -1913,6 +1988,17 @@
     <mergeCell ref="B42:B46"/>
     <mergeCell ref="B47:B51"/>
     <mergeCell ref="E1:E2"/>
+    <mergeCell ref="E3:E8"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="E27:E32"/>
+    <mergeCell ref="E33:E36"/>
+    <mergeCell ref="E37:E41"/>
+    <mergeCell ref="E42:E46"/>
+    <mergeCell ref="E47:E51"/>
     <mergeCell ref="F1:F2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
